--- a/biology/Botanique/Queue-de-renard/Queue-de-renard.xlsx
+++ b/biology/Botanique/Queue-de-renard/Queue-de-renard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -513,18 +525,20 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>« Queue-de-renard » est le nom vernaculaire de diverses espèces de plantes angiospermes, notamment :
-Acalypha hispida, queue-de-renard ou ortie brûlante (Euphorbiaceae)[1].
+Acalypha hispida, queue-de-renard ou ortie brûlante (Euphorbiaceae).
 Agave attenuata, agave à cou de cygne ou agave à queue-de-renard (Agavaceae).
 Alopecurus myosuroides, queue-de-renard des champs ou vulpin des champs (Poaceae)
-Alopecurus pratense, queue-de-renard, chiendent queue-de-renard ou vulpin des prés (Poaceae)[2].
+Alopecurus pratense, queue-de-renard, chiendent queue-de-renard ou vulpin des prés (Poaceae).
 Amaranthus caudatus, amarante queue-de-renard ou amarante des jardins (Amaranthaceae).
 Amaranthus cruentus, queue-de-renard ou amarante rouge (Amaranthaceae).
-Amaranthus hybridus, queue-de-renard à épi vert clair ou amarante verte (Amaranthaceae)[3].
+Amaranthus hybridus, queue-de-renard à épi vert clair ou amarante verte (Amaranthaceae).
 Anacamptis pyramidalis, orchidée queue-de-renard (Orchidaceae)
-Astragalus alpina, queue-de-renard ou astragale alpine (Fabaceae)[4].
+Astragalus alpina, queue-de-renard ou astragale alpine (Fabaceae).
 Astragale queue-de-renard  (Fabaceae).
 Melampyrum arvense, mélampyre des champs ou queue-de-renard (Orobanchaceae).
 Trifolium rubens, trèfle rougeâtre ou queue-de-renard (Fabaceae).
@@ -557,7 +571,9 @@
           <t>Couleur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le « queue-de-renard » est une couleur. C'est un rouge qui rappelle la couleur des fleurs de l'amarante queue-de-renard.</t>
         </is>
